--- a/settings/iis_errors.xlsx
+++ b/settings/iis_errors.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\PycharmProjects\BG_RSKR\settings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F8DBF9-D00D-401D-B4D8-A3AAA8EEBCFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4200" yWindow="1710" windowWidth="21600" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,84 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>error code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «500» - возникла в результате неверного синтаксиса файла .htaccess или наличие в нем неподдерживаемых директив, а так же вследствие неправильного обращения с CGI-скриптами.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «401» - доступ запрещен списком управления доступов к ресурсу.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «503» - Эта ошибка возникает, если не запустить пул приложений, связанный с веб-приложением. Чтобы устранить эту проблему, выполните следующие действия.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «404» - возникла в результате неверных url-ссылок на файлы, расположенные в веб-приложении. Причины возникновения: 
+в коде веб-приложения указаны ошибочные наименования (никогда ранее не существующих) файлов; 
+указанные в логах файлы ранее существовали (использовались) в веб-приложении, но в результате модификации (в различных формах - развитие, оптимизация) веб-приложения функции, которые были описаны в файлах были модифицированы, а ссылки на устаревшие файлы из кода веб-приложения не было полностью удалены, отправлен разработчику на устранение ошибок.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «403» - ошибка запрета доступа. Причины возникновения:
+на сервере имеется неправильный индексный файл;
+выставлены не верные права на папку в которой находится запрашиваемый файл, либо на какую-либо из ее родительских директорий;
+файл загружен в неправильную папку.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «400» - ошибка доступа к серверу шлюза TS. Причины возникновения: услуги, требуемые шлюзом TS, не запускаются; существуют проблемы с сервером NPS и Web-сервером (IIS).</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «405» - означает, что указанный клиентом метод нельзя применить к текущему ресурсу.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «406» - означает, что браузер клиента не принимает тип MIME запрашиваемой страницы.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «101» - означает, что сервер выполняет требование клиента и переключает протоколы в соответствии с указанием, данным в поле заголовка Upgrade. Сервер отправляет заголовок ответа Upgrade, указывая протокол, на который он переключился.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «503» - эта ошибка возникает, если не запустить пул приложений, связанный с веб-приложением. Чтобы устранить эту проблему, выполните следующие действия.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «302» - означает, что запрошенный документ временно доступен по другому URI, указанному в заголовке в поле Location. Этот код может быть использован, например, при управляемом сервером согласовании содержимого.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «304» - означает, что сервер возвращает такой код, если клиент запросил документ методом GET, использовал заголовок If-Modified-Since или If-None-Match и документ не изменился с указанного момента. При этом сообщение сервера не должно содержать тела.</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «305» - означает, что запрос к запрашиваемому ресурсу должен осуществляться через прокси-сервер, URI которого указан в поле Location заголовка. Данный код ответа могут использовать только исходные HTTP-сервера (не прокси)</t>
+  </si>
+  <si>
+    <t>Ошибка с кодом «301» - означает, что запрошенный документ был окончательно перенесен на новый URI, указанный в поле Location заголовка. Некоторые клиенты некорректно ведут себя при обработке данного кода.</t>
+  </si>
+  <si>
+    <t>Код состояния «206» -  это ответ на запрос части документа. Это используется расширенными инструментами кэширования, когда пользовательский агент запрашивает только небольшую часть страницы, и возвращается только этот раздел.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +125,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +422,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="173.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>301</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>302</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>304</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>305</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>400</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>401</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>403</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>404</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>405</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>406</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>500</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>503</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>503</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B16">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>